--- a/data/dividends_info_20260208.xlsx
+++ b/data/dividends_info_20260208.xlsx
@@ -2209,7 +2209,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Pirelli &amp; C. S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2226,7 +2226,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>Datrix S.p.A.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2243,7 +2243,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Datrix S.p.A.</t>
+          <t>Pirelli &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>Stellantis N.V.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2270,14 +2270,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Stellantis N.V.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo S.p.A.</t>
+          <t>IGD SIIQ S.p.A.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2413,7 +2413,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>IGD SIIQ S.p.A.</t>
+          <t>I.CO.P. S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2430,7 +2430,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>I.CO.P. S.p.A. Società Benefit</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2440,14 +2440,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>Dedem S.p.A.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2474,14 +2474,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Dedem S.p.A.</t>
+          <t>Intesa Sanpaolo S.p.A.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2566,7 +2566,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Autostrade Meridionali S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2576,14 +2576,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>Autostrade Meridionali S.p.A.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2593,14 +2593,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Kruso Kapital S.p.A.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2695,14 +2695,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2719,7 +2719,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2729,14 +2729,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2746,14 +2746,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kruso Kapital S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2770,7 +2770,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2780,14 +2780,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2797,14 +2797,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2821,7 +2821,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Masi Agricola S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2831,14 +2831,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2855,7 +2855,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Masi Agricola S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2865,14 +2865,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2889,7 +2889,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2899,14 +2899,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3042,7 +3042,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3052,14 +3052,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3076,7 +3076,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3086,14 +3086,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Generalfinance S.p.A.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3110,7 +3110,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3120,14 +3120,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3144,7 +3144,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3171,14 +3171,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3188,14 +3188,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3205,14 +3205,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>DIGITAL BROS S.p.A.</t>
+          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3273,14 +3273,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>VALSOIA S.p.A.</t>
+          <t>DIGITAL BROS S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
+          <t>VALSOIA S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3416,7 +3416,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Banca Popolare di Sondrio S.p.A.</t>
+          <t>Toscana Aeroporti S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3433,7 +3433,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Toscana Aeroporti S.p.A.</t>
+          <t>Banca Popolare di Sondrio S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3476,219 +3476,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-03-10</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Banca Popolare di Sondrio S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-03-10</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CALTAGIRONE EDITORE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-03-09</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CAREL INDUSTRIES S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-03-10</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-03-09</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>DIGITAL BROS S.p.A.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-03-09</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Half Year Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>RT&amp;L S.P.A.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-03-10</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SAIPEM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-03-10</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sanlorenzo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-03-09</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Toscana Aeroporti S.p.A.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-03-10</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>VALSOIA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-03-09</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>